--- a/Monthly/Forecast/Stationaritiy/Percentage Return/sony.xlsx
+++ b/Monthly/Forecast/Stationaritiy/Percentage Return/sony.xlsx
@@ -417,13 +417,13 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>-0.2777852899139415</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-18.41295109502264</v>
+        <v>-18.13950326287584</v>
       </c>
       <c r="E2">
-        <v>17.85738051519476</v>
+        <v>18.13950326287584</v>
       </c>
       <c r="F2">
         <v>0.3243830561119765</v>
@@ -437,13 +437,13 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>0.07576552946259578</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-17.97477213849218</v>
+        <v>-18.05464487419438</v>
       </c>
       <c r="E3">
-        <v>18.12630319741737</v>
+        <v>18.05464487419438</v>
       </c>
       <c r="F3">
         <v>7.451913523706999</v>
@@ -457,13 +457,13 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>-0.2199821990974322</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-18.24056532581939</v>
+        <v>-18.0257376465691</v>
       </c>
       <c r="E4">
-        <v>17.80060092762453</v>
+        <v>18.0257376465691</v>
       </c>
       <c r="F4">
         <v>-15.89495283870885</v>
@@ -477,13 +477,13 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>0.7643138881037563</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-17.4123096723699</v>
+        <v>-18.18929968996</v>
       </c>
       <c r="E5">
-        <v>18.94093744857741</v>
+        <v>18.18929968996</v>
       </c>
       <c r="F5">
         <v>-8.112003014196745</v>
@@ -497,13 +497,13 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>0.02991878611680709</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-18.1356333968265</v>
+        <v>-18.16978332139582</v>
       </c>
       <c r="E6">
-        <v>18.19547096906011</v>
+        <v>18.16978332139582</v>
       </c>
       <c r="F6">
         <v>6.214712900549557</v>
@@ -517,13 +517,13 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>-0.1749141456842422</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-18.29483717334819</v>
+        <v>-18.12466480611525</v>
       </c>
       <c r="E7">
-        <v>17.94500888197971</v>
+        <v>18.12466480611525</v>
       </c>
       <c r="F7">
         <v>-11.57898119548122</v>
@@ -537,13 +537,13 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>0.4523800392492903</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-17.70955658828109</v>
+        <v>-18.17055598567159</v>
       </c>
       <c r="E8">
-        <v>18.61431666677967</v>
+        <v>18.17055598567159</v>
       </c>
       <c r="F8">
         <v>10.29382294512331</v>
@@ -557,13 +557,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>-0.6638147041088205</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-18.83552462403476</v>
+        <v>-18.18927195194359</v>
       </c>
       <c r="E9">
-        <v>17.50789521581712</v>
+        <v>18.18927195194359</v>
       </c>
       <c r="F9">
         <v>-13.48025547532803</v>
@@ -577,13 +577,13 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>1.748245618893456</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-16.31909430971686</v>
+        <v>-18.277608660232</v>
       </c>
       <c r="E10">
-        <v>19.81558554750377</v>
+        <v>18.277608660232</v>
       </c>
       <c r="F10">
         <v>4.60994411239195</v>
@@ -597,13 +597,13 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>1.794626480453266</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-16.20269798243651</v>
+        <v>-18.21746214803353</v>
       </c>
       <c r="E11">
-        <v>19.79195094334304</v>
+        <v>18.21746214803353</v>
       </c>
       <c r="F11">
         <v>-2.867579997666603</v>
@@ -617,13 +617,13 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>1.751589146545527</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-16.18626217895992</v>
+        <v>-18.1462737584717</v>
       </c>
       <c r="E12">
-        <v>19.68944047205098</v>
+        <v>18.1462737584717</v>
       </c>
       <c r="F12">
         <v>-14.56565542410626</v>
@@ -637,13 +637,13 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>1.451641325198558</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-16.6433617728495</v>
+        <v>-18.26030877258167</v>
       </c>
       <c r="E13">
-        <v>19.54664442324662</v>
+        <v>18.26030877258167</v>
       </c>
       <c r="F13">
         <v>5.533391594777726</v>
@@ -657,13 +657,13 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>1.568387092981128</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-16.46613345011031</v>
+        <v>-18.21016020160239</v>
       </c>
       <c r="E14">
-        <v>19.60290763607256</v>
+        <v>18.21016020160239</v>
       </c>
       <c r="F14">
         <v>11.94400368640132</v>
@@ -677,13 +677,13 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>1.727579970021226</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-16.33084901262281</v>
+        <v>-18.26002935057483</v>
       </c>
       <c r="E15">
-        <v>19.78600895266526</v>
+        <v>18.26002935057483</v>
       </c>
       <c r="F15">
         <v>-10.80622242887888</v>
@@ -697,13 +697,13 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>1.573123841231567</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-16.54257881602155</v>
+        <v>-18.28629100699669</v>
       </c>
       <c r="E16">
-        <v>19.68882649848468</v>
+        <v>18.28629100699669</v>
       </c>
       <c r="F16">
         <v>12.07844840609695</v>
@@ -717,13 +717,13 @@
         <v>121</v>
       </c>
       <c r="C17">
-        <v>1.696369678163482</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-16.44412344966766</v>
+        <v>-18.33730324234885</v>
       </c>
       <c r="E17">
-        <v>19.83686280599462</v>
+        <v>18.33730324234885</v>
       </c>
       <c r="F17">
         <v>-0.3056103666533971</v>
@@ -737,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>1.674668468438301</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-16.39453437152978</v>
+        <v>-18.26207624501683</v>
       </c>
       <c r="E18">
-        <v>19.74387130840638</v>
+        <v>18.26207624501683</v>
       </c>
       <c r="F18">
         <v>5.072470251184313</v>
@@ -757,13 +757,13 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>1.718494456567031</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-16.2890832443014</v>
+        <v>-18.20976743712109</v>
       </c>
       <c r="E19">
-        <v>19.72607215743546</v>
+        <v>18.20976743712109</v>
       </c>
       <c r="F19">
         <v>4.589637981798589</v>
@@ -777,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>1.7429196673749</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-16.19984957032404</v>
+        <v>-18.15417506201342</v>
       </c>
       <c r="E20">
-        <v>19.68568890507384</v>
+        <v>18.15417506201342</v>
       </c>
       <c r="F20">
         <v>6.27007874890122</v>
@@ -797,13 +797,13 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>1.783388672977905</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-16.10713689675077</v>
+        <v>-18.11479244835744</v>
       </c>
       <c r="E21">
-        <v>19.67391424270657</v>
+        <v>18.11479244835744</v>
       </c>
       <c r="F21">
         <v>-0.5983563102969214</v>
@@ -817,13 +817,13 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>1.769343003183956</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-16.05460278570364</v>
+        <v>-18.04306765482802</v>
       </c>
       <c r="E22">
-        <v>19.59328879207155</v>
+        <v>18.04306765482802</v>
       </c>
       <c r="F22">
         <v>1.118997129354327</v>
@@ -837,13 +837,13 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <v>1.763037943644476</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-15.99079304640028</v>
+        <v>-17.97294529931853</v>
       </c>
       <c r="E23">
-        <v>19.51686893368923</v>
+        <v>17.97294529931853</v>
       </c>
       <c r="F23">
         <v>-7.268237387390286</v>
@@ -857,13 +857,13 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>1.676141135596609</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-16.07344546708171</v>
+        <v>-17.94682687081389</v>
       </c>
       <c r="E24">
-        <v>19.42572773827493</v>
+        <v>17.94682687081389</v>
       </c>
       <c r="F24">
         <v>-2.66790277653346</v>
@@ -877,13 +877,13 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>1.638964942301163</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-16.05605752323071</v>
+        <v>-17.88305757070588</v>
       </c>
       <c r="E25">
-        <v>19.33398740783304</v>
+        <v>17.88305757070588</v>
       </c>
       <c r="F25">
         <v>4.720876576682898</v>
@@ -897,13 +897,13 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>1.672040117570889</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-15.96431441460088</v>
+        <v>-17.83261920344119</v>
       </c>
       <c r="E26">
-        <v>19.30839464974265</v>
+        <v>17.83261920344119</v>
       </c>
       <c r="F26">
         <v>-0.5878911699776168</v>
